--- a/biology/Botanique/Hygrophorus/Hygrophorus.xlsx
+++ b/biology/Botanique/Hygrophorus/Hygrophorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hygrophore
 Hygrophorus est un genre de champignons basidiomycètes de la famille des hygrophoracées.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Construit sur les racines grecques hugros et phorein, leur nom signifie littéralement "porteurs d'eau", en référence à leur aspect souvent humide.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de champignons de taille moyenne, au chapeau souvent cireux ou visqueux et aux lames souvent espacées, décurrentes et lardacées.
 			Hygrophore blanc d'ivoire (Hygrophorus eburneus).
@@ -578,7 +594,9 @@
           <t>Espèces de France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> (à compléter)
 Hygrophorus agathosmus - Hygrophore à odeur agréable
@@ -618,7 +636,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre ne comprend aucune espèce vénéneuse. La plupart sont sans intérêt mais certaines constituent des comestibles honorables.
 </t>
@@ -649,7 +669,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les Champignons, Roger Phillips, éditions Solar,  (ISBN 2-263-00640-0)</t>
         </is>
